--- a/data/536/BIDN/SEKI/Broad Money_historical - Monthly.xlsx
+++ b/data/536/BIDN/SEKI/Broad Money_historical - Monthly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OD2"/>
+  <dimension ref="A1:OH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,7 +2329,27 @@
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
           <t>2021-10</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
         </is>
       </c>
     </row>
@@ -3492,31 +3512,43 @@
         <v>5027026.92</v>
       </c>
       <c r="NV2" t="n">
-        <v>4977449.45</v>
+        <v>4983837.72530737</v>
       </c>
       <c r="NW2" t="n">
-        <v>5005662.76</v>
+        <v>5012979.201766227</v>
       </c>
       <c r="NX2" t="n">
-        <v>5042453.04</v>
+        <v>5049972.227455492</v>
       </c>
       <c r="NY2" t="n">
-        <v>5088499.53</v>
+        <v>5095802.067915765</v>
       </c>
       <c r="NZ2" t="n">
-        <v>5114819.04</v>
+        <v>5124161.161305307</v>
       </c>
       <c r="OA2" t="n">
-        <v>5187626.77</v>
+        <v>5198174.820733969</v>
       </c>
       <c r="OB2" t="n">
-        <v>5198732.58</v>
+        <v>5210209.668952544</v>
       </c>
       <c r="OC2" t="n">
-        <v>5239760.81</v>
+        <v>5252508.4074685</v>
       </c>
       <c r="OD2" t="n">
-        <v>5400094.37</v>
+        <v>5311397.607160874</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>5400094.365495056</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>5438522.722029826</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>5563452.247133281</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>5472028.853425799</v>
       </c>
     </row>
   </sheetData>
